--- a/biology/Écologie/Épreinte_(écologie)/Épreinte_(écologie).xlsx
+++ b/biology/Écologie/Épreinte_(écologie)/Épreinte_(écologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89preinte_(%C3%A9cologie)</t>
+          <t>Épreinte_(écologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les naturalistes nomment « épreinte » les excréments laissés par les mammifères dans la nature.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89preinte_(%C3%A9cologie)</t>
+          <t>Épreinte_(écologie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces traces sont des indices permettant à des spécialistes de détecter :
 la présence d'un animal ;
@@ -520,7 +534,7 @@
 ce qu'il a mangé ;
 son état de santé ;
 son identité (analyse ADN).
-Par analyse de ce que l'animal a mangé, ou des microbes et parasites présents, l'écologue, le vétérinaire ou l'éco-épidémiologue peuvent déduire des informations utiles. Par exemple, l'analyse des épreintes de loutre peut permettre d'identifier les espèces de poissons consommées (brochet, ombre, truite, perche-soleil...), ainsi que la masse et la taille de ces poissons. En répétant l'estimation de la masse et de la taille pour chaque espèce trouvée, ce travail fournit une idée très fidèle de l'importance de chaque espèce, en abondance et en biomasse, dans le milieu aquatique étudié. Ceci donne des informations très précieuses sur la qualité et l'état du milieu[1].
+Par analyse de ce que l'animal a mangé, ou des microbes et parasites présents, l'écologue, le vétérinaire ou l'éco-épidémiologue peuvent déduire des informations utiles. Par exemple, l'analyse des épreintes de loutre peut permettre d'identifier les espèces de poissons consommées (brochet, ombre, truite, perche-soleil...), ainsi que la masse et la taille de ces poissons. En répétant l'estimation de la masse et de la taille pour chaque espèce trouvée, ce travail fournit une idée très fidèle de l'importance de chaque espèce, en abondance et en biomasse, dans le milieu aquatique étudié. Ceci donne des informations très précieuses sur la qualité et l'état du milieu.
 Les pelotes de poils et os rejetés (par la bouche) par certains rapaces sont dites « pelotes de réjection ».
 </t>
         </is>
